--- a/results/old_dataset_smote_result.xlsx
+++ b/results/old_dataset_smote_result.xlsx
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C7" t="n">
         <v>0.25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.375</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
@@ -517,13 +517,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C8" t="n">
         <v>0.4897959183673469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.48</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="E8" t="n">
         <v>49</v>
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4303797468354431</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="C11" t="n">
         <v>0.4533333333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4415584415584415</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="E11" t="n">
         <v>75</v>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="D12" t="n">
-        <v>0.42</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="E12" t="n">
         <v>58</v>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C13" t="n">
         <v>0.03846153846153846</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04166666666666667</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2285714285714285</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E14" t="n">
         <v>46</v>
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7098765432098766</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C15" t="n">
         <v>0.7232704402515723</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7165109034267912</v>
+        <v>0.7098765432098766</v>
       </c>
       <c r="E15" t="n">
         <v>159</v>
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5580736543909348</v>
+        <v>0.5482093663911846</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6985815602836879</v>
+        <v>0.7056737588652482</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6204724409448819</v>
+        <v>0.6170542635658913</v>
       </c>
       <c r="E16" t="n">
         <v>282</v>
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.527027027027027</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="C17" t="n">
-        <v>0.527027027027027</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="D17" t="n">
-        <v>0.527027027027027</v>
+        <v>0.5170068027210885</v>
       </c>
       <c r="E17" t="n">
         <v>74</v>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C18" t="n">
         <v>0.2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5309199805923115</v>
+        <v>0.5330858038385895</v>
       </c>
       <c r="C20" t="n">
         <v>0.5404157043879908</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5269922817939573</v>
+        <v>0.5261058927910466</v>
       </c>
       <c r="E20" t="n">
         <v>866</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4950495049504951</v>
+        <v>0.5098039215686275</v>
       </c>
       <c r="E29" t="n">
         <v>49</v>
@@ -860,13 +860,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C30" t="n">
         <v>0.4117647058823529</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4374999999999999</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E30" t="n">
         <v>17</v>
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C31" t="n">
         <v>0.32</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E31" t="n">
         <v>25</v>
@@ -898,13 +898,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4255319148936171</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="E32" t="n">
         <v>75</v>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3768115942028986</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4094488188976378</v>
+        <v>0.4029850746268656</v>
       </c>
       <c r="E33" t="n">
         <v>58</v>
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.25</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C34" t="n">
         <v>0.1923076923076923</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E34" t="n">
         <v>26</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.803030303030303</v>
+        <v>0.823076923076923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6729559748427673</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7285223367697593</v>
+        <v>0.740484429065744</v>
       </c>
       <c r="E36" t="n">
         <v>159</v>
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5770491803278689</v>
+        <v>0.5718954248366013</v>
       </c>
       <c r="C37" t="n">
-        <v>0.624113475177305</v>
+        <v>0.6205673758865248</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5996592844974448</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="E37" t="n">
         <v>282</v>
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4948453608247423</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5614035087719298</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E38" t="n">
         <v>74</v>
@@ -1031,13 +1031,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.44</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C39" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="D39" t="n">
-        <v>0.44</v>
+        <v>0.4255319148936171</v>
       </c>
       <c r="E39" t="n">
         <v>25</v>
@@ -1069,13 +1069,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.5414719929336096</v>
+        <v>0.5445225744982409</v>
       </c>
       <c r="C41" t="n">
         <v>0.535796766743649</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5348415619071186</v>
+        <v>0.5358321602740955</v>
       </c>
       <c r="E41" t="n">
         <v>866</v>
@@ -1146,13 +1146,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C49" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5454545454545454</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4464285714285715</v>
+        <v>0.48</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E50" t="n">
         <v>49</v>
@@ -1184,13 +1184,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C51" t="n">
         <v>0.4705882352941176</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.5161290322580646</v>
       </c>
       <c r="E51" t="n">
         <v>17</v>
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.25</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C52" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="E52" t="n">
         <v>25</v>
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4457831325301205</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4933333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4683544303797468</v>
+        <v>0.4295302013422819</v>
       </c>
       <c r="E53" t="n">
         <v>75</v>
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4035087719298245</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4220183486238532</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="E54" t="n">
         <v>57</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E55" t="n">
         <v>27</v>
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="C56" t="n">
         <v>0.3260869565217391</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.375</v>
       </c>
       <c r="E56" t="n">
         <v>46</v>
@@ -1298,13 +1298,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.7549668874172185</v>
+        <v>0.7612903225806451</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7125</v>
+        <v>0.7375</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7331189710610932</v>
+        <v>0.7492063492063491</v>
       </c>
       <c r="E57" t="n">
         <v>160</v>
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.6192170818505338</v>
+        <v>0.553314121037464</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6181172291296625</v>
+        <v>0.6104928457869634</v>
       </c>
       <c r="E58" t="n">
         <v>282</v>
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="C59" t="n">
-        <v>0.589041095890411</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E59" t="n">
         <v>73</v>
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.44</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C60" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="D60" t="n">
-        <v>0.44</v>
+        <v>0.4255319148936171</v>
       </c>
       <c r="E60" t="n">
         <v>25</v>
@@ -1377,10 +1377,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.09523809523809525</v>
       </c>
       <c r="E61" t="n">
         <v>18</v>
@@ -1393,13 +1393,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.5437928366169827</v>
+        <v>0.5302682791293807</v>
       </c>
       <c r="C62" t="n">
         <v>0.5427251732101617</v>
       </c>
       <c r="D62" t="n">
-        <v>0.540298173672078</v>
+        <v>0.529219213296156</v>
       </c>
       <c r="E62" t="n">
         <v>866</v>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5473684210526316</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="E71" t="n">
         <v>49</v>
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4800000000000001</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.32</v>
       </c>
       <c r="C73" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="E73" t="n">
         <v>25</v>
@@ -1546,13 +1546,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5211267605633803</v>
+        <v>0.5</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4868421052631579</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5034013605442176</v>
+        <v>0.5128205128205129</v>
       </c>
       <c r="E74" t="n">
         <v>76</v>
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3454545454545455</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3392857142857143</v>
+        <v>0.372093023255814</v>
       </c>
       <c r="E75" t="n">
         <v>57</v>
@@ -1584,13 +1584,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E76" t="n">
         <v>26</v>
@@ -1603,13 +1603,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1521739130434783</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E77" t="n">
         <v>46</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="C78" t="n">
-        <v>0.74375</v>
+        <v>0.725</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7414330218068534</v>
+        <v>0.7483870967741936</v>
       </c>
       <c r="E78" t="n">
         <v>160</v>
@@ -1641,13 +1641,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.5685714285714286</v>
+        <v>0.5733788395904437</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7031802120141343</v>
+        <v>0.5936395759717314</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6287519747235387</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E79" t="n">
         <v>283</v>
@@ -1660,13 +1660,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.5060240963855421</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="C80" t="n">
         <v>0.5753424657534246</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="E80" t="n">
         <v>73</v>
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.4</v>
       </c>
       <c r="C81" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3829787234042554</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="E81" t="n">
         <v>25</v>
@@ -1698,13 +1698,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="C82" t="n">
         <v>0.1764705882352941</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.24</v>
       </c>
       <c r="E82" t="n">
         <v>17</v>
@@ -1717,13 +1717,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.5529005167678591</v>
+        <v>0.5426525314515596</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5623556581986143</v>
+        <v>0.5392609699769053</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5494758180063104</v>
+        <v>0.5375511737178786</v>
       </c>
       <c r="E83" t="n">
         <v>866</v>
@@ -1813,13 +1813,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.5094339622641509</v>
+        <v>0.52</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5294117647058822</v>
+        <v>0.5252525252525252</v>
       </c>
       <c r="E92" t="n">
         <v>49</v>
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="C93" t="n">
         <v>0.375</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4324324324324325</v>
+        <v>0.4</v>
       </c>
       <c r="E94" t="n">
         <v>24</v>
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.5737704918032787</v>
+        <v>0.625</v>
       </c>
       <c r="C95" t="n">
         <v>0.4605263157894737</v>
       </c>
       <c r="D95" t="n">
-        <v>0.510948905109489</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="E95" t="n">
         <v>76</v>
@@ -1889,13 +1889,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C96" t="n">
-        <v>0.293103448275862</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3090909090909091</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="E96" t="n">
         <v>58</v>
@@ -1908,13 +1908,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C97" t="n">
         <v>0.2692307692307692</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3255813953488372</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="E97" t="n">
         <v>26</v>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2195121951219512</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="E98" t="n">
         <v>46</v>
@@ -1946,13 +1946,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7669172932330827</v>
       </c>
       <c r="C99" t="n">
-        <v>0.65625</v>
+        <v>0.6375</v>
       </c>
       <c r="D99" t="n">
-        <v>0.711864406779661</v>
+        <v>0.6962457337883958</v>
       </c>
       <c r="E99" t="n">
         <v>160</v>
@@ -1965,13 +1965,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5638888888888889</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7127659574468085</v>
+        <v>0.7198581560283688</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6261682242990655</v>
+        <v>0.632398753894081</v>
       </c>
       <c r="E100" t="n">
         <v>282</v>
@@ -1984,13 +1984,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C101" t="n">
-        <v>0.527027027027027</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.4733727810650888</v>
       </c>
       <c r="E101" t="n">
         <v>74</v>
@@ -2041,13 +2041,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.5333872691836989</v>
+        <v>0.5389064847528495</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5404157043879908</v>
+        <v>0.5415704387990762</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5297838923843039</v>
+        <v>0.5319540968455561</v>
       </c>
       <c r="E104" t="n">
         <v>866</v>
